--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32177-d142257-Reviews-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Econo-Lodge-Carson-Near-StubHub-Center.h3465.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,526 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r482947533-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>32177</t>
+  </si>
+  <si>
+    <t>142257</t>
+  </si>
+  <si>
+    <t>482947533</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good place </t>
+  </si>
+  <si>
+    <t>This place is clean and quiet. Lots of stuff within walking distance. The staff is super friendly and accommodating. I was broke down at the Kenworth dealer across the street and was able to walk over and get my room. When I got stuck a 4th night they welcomed me back. Recommended!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r473820351-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>473820351</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location sketchy; owners not accommodating </t>
+  </si>
+  <si>
+    <t>We so don't like to write negative reviews AT ALL.  Especially when it comes to Mom/Pop businesses who are just trying to make their businesses work.  But Just thought it important to note a few things about this hotel for traveling families.  First, the area is sketchy; felt unsafe to have our children there - or even just us for that matter. 
+Secondly, even  though the East Indian, elderly owners seem like nice people (the husband especially - smiled often); they seem of persasion that they are 'allowing' you as the customer to stay there but they are not there to serve you.  When we checked in, the owners said they didn't have the type of room we booked so they had to give us a more expensive upgraded room that had a jacuzzi tub - but said to NOT use the jacuzzi.  We've NEVER had a hotel/motel give you an upgrade but then tell you not to use the room amenities.  To us that was penny-pinching, poor customer service. 
+Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add...We so don't like to write negative reviews AT ALL.  Especially when it comes to Mom/Pop businesses who are just trying to make their businesses work.  But Just thought it important to note a few things about this hotel for traveling families.  First, the area is sketchy; felt unsafe to have our children there - or even just us for that matter. Secondly, even  though the East Indian, elderly owners seem like nice people (the husband especially - smiled often); they seem of persasion that they are 'allowing' you as the customer to stay there but they are not there to serve you.  When we checked in, the owners said they didn't have the type of room we booked so they had to give us a more expensive upgraded room that had a jacuzzi tub - but said to NOT use the jacuzzi.  We've NEVER had a hotel/motel give you an upgrade but then tell you not to use the room amenities.  To us that was penny-pinching, poor customer service. Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add that we ended up having more people in our room than we stated when we booked the room.  But was very upfront about that before we officially checked in and signed our receipt, and she agreed to it.  Any 'threats' of extra charges should have been stated upfront at check-in.Lastly, the windows have bars on them and look out at a rundown alley.  Funny thing is, we paid more for this hotel than others that we stayed in on our vacation in Cali.  It was truly the hotel (and the area in CA) we liked the least. It further solidified our lack of trust in  Choice Hotels.  That said, we truly wish the owners well and hope this review will help them reconsider how to handle their customers so they can thrive more :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We so don't like to write negative reviews AT ALL.  Especially when it comes to Mom/Pop businesses who are just trying to make their businesses work.  But Just thought it important to note a few things about this hotel for traveling families.  First, the area is sketchy; felt unsafe to have our children there - or even just us for that matter. 
+Secondly, even  though the East Indian, elderly owners seem like nice people (the husband especially - smiled often); they seem of persasion that they are 'allowing' you as the customer to stay there but they are not there to serve you.  When we checked in, the owners said they didn't have the type of room we booked so they had to give us a more expensive upgraded room that had a jacuzzi tub - but said to NOT use the jacuzzi.  We've NEVER had a hotel/motel give you an upgrade but then tell you not to use the room amenities.  To us that was penny-pinching, poor customer service. 
+Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add...We so don't like to write negative reviews AT ALL.  Especially when it comes to Mom/Pop businesses who are just trying to make their businesses work.  But Just thought it important to note a few things about this hotel for traveling families.  First, the area is sketchy; felt unsafe to have our children there - or even just us for that matter. Secondly, even  though the East Indian, elderly owners seem like nice people (the husband especially - smiled often); they seem of persasion that they are 'allowing' you as the customer to stay there but they are not there to serve you.  When we checked in, the owners said they didn't have the type of room we booked so they had to give us a more expensive upgraded room that had a jacuzzi tub - but said to NOT use the jacuzzi.  We've NEVER had a hotel/motel give you an upgrade but then tell you not to use the room amenities.  To us that was penny-pinching, poor customer service. Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add that we ended up having more people in our room than we stated when we booked the room.  But was very upfront about that before we officially checked in and signed our receipt, and she agreed to it.  Any 'threats' of extra charges should have been stated upfront at check-in.Lastly, the windows have bars on them and look out at a rundown alley.  Funny thing is, we paid more for this hotel than others that we stayed in on our vacation in Cali.  It was truly the hotel (and the area in CA) we liked the least. It further solidified our lack of trust in  Choice Hotels.  That said, we truly wish the owners well and hope this review will help them reconsider how to handle their customers so they can thrive more :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r428236113-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>428236113</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Boring Filthy place</t>
+  </si>
+  <si>
+    <t>The smell from the bathroom was disgusting. The sheets and pillowcases were literally yellow instead of white. The internet started working only at midnight. Goes with no comparison with franchise motels for the same price.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r370032848-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>370032848</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>nice hotel and very clean within my pricing and lovely Helpful staff. Will stay here again.</t>
+  </si>
+  <si>
+    <t>My first trip to LA after many years. Found this hotel on internet and it was within my budget. Stayed with my wife in one of the double non smoking rooms and it turned out to be a very clean nice hotel with lovely helpful reception staff. Quiet but good location close to airport and other places so it suited us well. I will definately stay here when visiting LA again. P Bodhani</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r333427553-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>333427553</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Billing issues!!</t>
+  </si>
+  <si>
+    <t>The hotel was average enough, but the big problem was getting the billing straightened out. We had prepaid through our airline website, and indicated that to the front desk at check in. Knowing that, they still charged us for the stay on our credit card. When we called them to get the issue resolved they were rude and nonresponsive to the problem. We had to contest the charge with the credit card company to get the adjustment. Save yourself a headache-go somewhere else!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r310600956-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>310600956</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Courteous staff</t>
+  </si>
+  <si>
+    <t>Great location for the price. Easy access to the freeways. Clean rooms, lots clean towels. Liked the fridge and microwave in the room.Good Wi-Fi service.Continental breakfast provided not so great, especially the coffee.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r276568127-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>276568127</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>I live in San Bernardino, Ca.I was invited to an Event in LA.I remember my first stay at EconoLodge Carson,Ca. Yr.2006</t>
+  </si>
+  <si>
+    <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and Family❤MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and Family❤More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r275840500-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>275840500</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Simple and affordable</t>
+  </si>
+  <si>
+    <t>If you're looking for a reasonable place to stay in and around Carson, this is it. I've stayed here a lot over the past few months and it's nice that they remember me. Even though the area is not the best, my car hasn't been messed with overnight, the rooms are clean, the AC works and I can walk next door to get something to eat or drink when I want. I'll definitely be coming back.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r272758997-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>272758997</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Horrible Horrible Horrible</t>
+  </si>
+  <si>
+    <t>When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely...When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely false.  HORRIBLE Experience!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manjumakan, Manager at Econo Lodge Near Stub Hub Center, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely...When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely false.  HORRIBLE Experience!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r252102755-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>252102755</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>good choice</t>
+  </si>
+  <si>
+    <t>Working in the area, good choice for me and  I will go back. Clean room, convenient location for access to interstate 405.Owend  by a family, they are nice and helpful. Did not have problems in the neighborhood.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r249315763-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>249315763</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Convenient Location with all the Amentities</t>
+  </si>
+  <si>
+    <t>Stop here the night before fling out of LAX. Hotel is clean, and up to date. Location offers easy access to Freeway. Plenty of options to eat within a 5 mile radius. Will defiantly stay here again when fling out for business.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r232478079-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>232478079</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a smaller location. The rooms are great and comfortable and it is very quiet. Its semi close to most stores and right around the corner from the mall. I believe its owned by a family. Very nice couple. The only thing that I would change is that they don't have a public laundry or a pool. But the hotel is so small there is no room for a pool. Easy parking. And close to the freeway.  My favorite room is the one upstairs in the corner extra large room with lots and lots of space. As well as the whirlpool room.  </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r189412089-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>189412089</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Very functional, good value, and friendly</t>
+  </si>
+  <si>
+    <t>Our first visit to this hotel; was very easy to stay here; very friendly staff, and excellent value and willingness to help the customer.  For ourselves, as well as other guests checking in about the same time, the staff was very helpful in answering tourist questions and providing recommendations.  Also needed to locate a nearby cash transaction facility, and the staff was very helpful with multiple accurate recommendations, providing the location, phone number, and directions.   Really strong support from the staff !!   Thank you !  Steve M.; Plano, TX.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r183646139-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>183646139</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I've stayed here many times before. Each time the room has been very clean and furnished with a flat screen TV, fridge and microwave. The staff is very friendly and helpful. A very good price for what you get.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r180719616-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>180719616</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Felt Very Much At Home</t>
+  </si>
+  <si>
+    <t>I drive and evaluate Mercedes Benz, was in Carson, CA coming from Corpus Christi, Texas, had been on the road for 2 days.  I am so glad I found EconoLodge.  Excellent facility ! !  Econolodge was just blocks  away from my destination,  I was very impressed, thought I was at a Double Tree Hotel.  Front Desk staff are VERY KIND and HELPFUL people.  Room was a very big room and very clean.  Loved the  big flat screen T.V.(so many channels to choose from)  Was glad it had a fridge, microwave  iron &amp; board.  The price was excellent for all the service.  Very well lighted  &amp; very clean parking lot.  THIS IS THE PERFECT PLACE TO STOP AND SPEND THE NIGHT OR NIGHTS.  Next time I make a transfer of vehicles with my company, for sure, this will be my destination to rest.  Thank you very much to the great, helpful &amp; friendly front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I drive and evaluate Mercedes Benz, was in Carson, CA coming from Corpus Christi, Texas, had been on the road for 2 days.  I am so glad I found EconoLodge.  Excellent facility ! !  Econolodge was just blocks  away from my destination,  I was very impressed, thought I was at a Double Tree Hotel.  Front Desk staff are VERY KIND and HELPFUL people.  Room was a very big room and very clean.  Loved the  big flat screen T.V.(so many channels to choose from)  Was glad it had a fridge, microwave  iron &amp; board.  The price was excellent for all the service.  Very well lighted  &amp; very clean parking lot.  THIS IS THE PERFECT PLACE TO STOP AND SPEND THE NIGHT OR NIGHTS.  Next time I make a transfer of vehicles with my company, for sure, this will be my destination to rest.  Thank you very much to the great, helpful &amp; friendly front desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r163023804-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>163023804</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>You can rest assured!!!!  (This is the PLACE)</t>
+  </si>
+  <si>
+    <t>My spouse and our son visited the room while the other family members stayed in the car, I sent our oldest son because he is very observant and will tell the TRUTH about it.  When they returned to the car he said "the room is very big and nice".  I asked him was it clean and he said yes.  We checked in and the room was very clean and was very spacious.  Housekeeping crew were always up very early in the morning cleaning the lot, rooms etc.  The management was very kind to our family.  When we needed anything all we had to do was ask them.  Every thing was super duper clean.  We loved our stay and did not want to leave.  You will love this hotel!!!!!!!!!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My spouse and our son visited the room while the other family members stayed in the car, I sent our oldest son because he is very observant and will tell the TRUTH about it.  When they returned to the car he said "the room is very big and nice".  I asked him was it clean and he said yes.  We checked in and the room was very clean and was very spacious.  Housekeeping crew were always up very early in the morning cleaning the lot, rooms etc.  The management was very kind to our family.  When we needed anything all we had to do was ask them.  Every thing was super duper clean.  We loved our stay and did not want to leave.  You will love this hotel!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r152886173-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>152886173</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>A wonderful friendly welcome</t>
+  </si>
+  <si>
+    <t>This hotel wasn't my cup of tea but I understand &amp; agree with other reviews that it 'does the job'. It has great potential but needs a good refurb....With brand new large flat screen TV's &amp; brand new huge ventilation units, it is a shame that more wasn't done with the general decor &amp; sanitary ware with a very small not nice shower room &amp; the room was a little smelly. What I will say is we had the best sleep in a very comfy bed &amp; the manager was very courteous &amp; accommodating. I wouldn't choose it again tho'</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r145685300-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>145685300</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Thanks, mom</t>
+  </si>
+  <si>
+    <t>Daily housekeeping, laundry service. I felt like I was in my mother's home. I work away from home and stay in hotels a lot.  I really enjoyed my stay at Econo Lodge Carson and will be going back. The only complaint is TV service-I can't get any decent channels.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r142142509-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>142142509</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>David Estes ( NASSUSA)</t>
+  </si>
+  <si>
+    <t>Friendly, courteous service as well as great rates. Would definitely reccomend this hotel to others. Very clean rooms. Close to everything you need while staying in the area. Nothing bad to say about my stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r141348979-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>141348979</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Service and room thor anderson</t>
+  </si>
+  <si>
+    <t>great hotel i love the service convient and near the 405 fwy also a good value. the people were very nice as well. the free breakfest is also convient just grad your breakfest and go          Yay!ggggggggggggggggggggggggggrrrrrrrrrrrrrrrrrrrrrreeeeeeeeeeeeeeeeeeeeeaaaaaaaaaaaaaaaaaaaattttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r141150882-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>141150882</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I had the very best experience with this motel.  The rooms are clean and comfortable and the extra amenities accommodated my every need. Great location and very reasonable rates. The staff go above and beyond to provide excellent service! I have some special needs and they are very helpful and supportive.  I had stayed several times over the last couple of months and it really does feel like home away from home. I highly recommend this motel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131687565-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>131687565</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Week end stay</t>
+  </si>
+  <si>
+    <t>I was very impressed with the cleanliness and comfort of this motel, and the service was excellentI rate this place a++++</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131518905-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>131518905</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>A home away from home</t>
+  </si>
+  <si>
+    <t>Being a truck driver I see my share of Hotels. I just returned from staying here a couple days ago and I must say... I am NOT disappointed! I had no desire to seek a different Hotel due to my initial pleasant experience. The staff is great and provided outstanding customer service ensuring all my needs were met! The rooms are very clean and spacious and come with a Flat Screen TV, refrigerator, Microwave, and even a Kitchen sink.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r129732897-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>129732897</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Most conviniant hotel around</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By far is one of the cleanest and most well maintained hotels I have ever stayed at. Staff is very helpful and accomidating. I highly recommend staying here. I know I will. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r127811170-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>127811170</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>Very Clean and close to 405</t>
+  </si>
+  <si>
+    <t>This motel is centrally located half way between Long Beach and Redondo Beach, just south of LAX, and it was comfortable and very clean. Nice sheets, towels, small refrigerator, microwave, free wifi, &amp; flat screen. I would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r119630164-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>119630164</t>
+  </si>
+  <si>
+    <t>10/23/2011</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was clean, staff were nice and everything worked fine. Breakfast was a tiny corner with a few items. The eating area was very small so if you have a big family, breakfast there will be a challenge. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r98456614-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>98456614</t>
+  </si>
+  <si>
+    <t>02/28/2011</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Okay now the room was way more nice than I expected..lol..honestly think the rooms are better than the Doubletree and I use to stay there all the time..Econo Lodge is cheaper and you almost get more than your expecting..!!MoreShow less</t>
+  </si>
+  <si>
+    <t>econo-carson, Front Dest Attendent at Econo Lodge Near Stub Hub Center, responded to this reviewResponded March 2, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2011</t>
+  </si>
+  <si>
+    <t>Okay now the room was way more nice than I expected..lol..honestly think the rooms are better than the Doubletree and I use to stay there all the time..Econo Lodge is cheaper and you almost get more than your expecting..!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1168,1733 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>213</v>
+      </c>
+      <c r="X28" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>donwapel</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r473820351-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -208,6 +214,9 @@
 Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add...We so don't like to write negative reviews AT ALL.  Especially when it comes to Mom/Pop businesses who are just trying to make their businesses work.  But Just thought it important to note a few things about this hotel for traveling families.  First, the area is sketchy; felt unsafe to have our children there - or even just us for that matter. Secondly, even  though the East Indian, elderly owners seem like nice people (the husband especially - smiled often); they seem of persasion that they are 'allowing' you as the customer to stay there but they are not there to serve you.  When we checked in, the owners said they didn't have the type of room we booked so they had to give us a more expensive upgraded room that had a jacuzzi tub - but said to NOT use the jacuzzi.  We've NEVER had a hotel/motel give you an upgrade but then tell you not to use the room amenities.  To us that was penny-pinching, poor customer service. Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add that we ended up having more people in our room than we stated when we booked the room.  But was very upfront about that before we officially checked in and signed our receipt, and she agreed to it.  Any 'threats' of extra charges should have been stated upfront at check-in.Lastly, the windows have bars on them and look out at a rundown alley.  Funny thing is, we paid more for this hotel than others that we stayed in on our vacation in Cali.  It was truly the hotel (and the area in CA) we liked the least. It further solidified our lack of trust in  Choice Hotels.  That said, we truly wish the owners well and hope this review will help them reconsider how to handle their customers so they can thrive more :)More</t>
   </si>
   <si>
+    <t>Alicia_Bellino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r428236113-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>pbodhani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r370032848-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -247,6 +259,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>BevW631</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r333427553-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -265,6 +280,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>ylnsie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r310600956-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -283,6 +301,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Lolabrenda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r276568127-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -304,6 +325,9 @@
     <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and Family❤More</t>
   </si>
   <si>
+    <t>Ron T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r275840500-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -322,6 +346,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>earlisha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r272758997-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -346,6 +373,9 @@
     <t>When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely...When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely false.  HORRIBLE Experience!!!!More</t>
   </si>
   <si>
+    <t>Emanoil G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r252102755-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -364,6 +394,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Anand P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r249315763-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>xOjessicaXo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r232478079-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -400,6 +436,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Steve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r189412089-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -418,6 +457,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>roland s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r183646139-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -436,6 +478,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Ester B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r180719616-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -457,6 +502,9 @@
     <t>I drive and evaluate Mercedes Benz, was in Carson, CA coming from Corpus Christi, Texas, had been on the road for 2 days.  I am so glad I found EconoLodge.  Excellent facility ! !  Econolodge was just blocks  away from my destination,  I was very impressed, thought I was at a Double Tree Hotel.  Front Desk staff are VERY KIND and HELPFUL people.  Room was a very big room and very clean.  Loved the  big flat screen T.V.(so many channels to choose from)  Was glad it had a fridge, microwave  iron &amp; board.  The price was excellent for all the service.  Very well lighted  &amp; very clean parking lot.  THIS IS THE PERFECT PLACE TO STOP AND SPEND THE NIGHT OR NIGHTS.  Next time I make a transfer of vehicles with my company, for sure, this will be my destination to rest.  Thank you very much to the great, helpful &amp; friendly front desk staff.More</t>
   </si>
   <si>
+    <t>J C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r163023804-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -478,6 +526,9 @@
     <t>My spouse and our son visited the room while the other family members stayed in the car, I sent our oldest son because he is very observant and will tell the TRUTH about it.  When they returned to the car he said "the room is very big and nice".  I asked him was it clean and he said yes.  We checked in and the room was very clean and was very spacious.  Housekeeping crew were always up very early in the morning cleaning the lot, rooms etc.  The management was very kind to our family.  When we needed anything all we had to do was ask them.  Every thing was super duper clean.  We loved our stay and did not want to leave.  You will love this hotel!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>Samluvssun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r152886173-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -496,6 +547,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Fields934</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r145685300-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -514,6 +568,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>David E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r142142509-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -529,6 +586,9 @@
     <t>Friendly, courteous service as well as great rates. Would definitely reccomend this hotel to others. Very clean rooms. Close to everything you need while staying in the area. Nothing bad to say about my stay here.</t>
   </si>
   <si>
+    <t>thoranderson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r141348979-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -547,6 +607,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Sal R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r141150882-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -565,6 +628,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Paul J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131687565-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -583,6 +649,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>NFLjunkeez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131518905-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -598,6 +667,9 @@
     <t>Being a truck driver I see my share of Hotels. I just returned from staying here a couple days ago and I must say... I am NOT disappointed! I had no desire to seek a different Hotel due to my initial pleasant experience. The staff is great and provided outstanding customer service ensuring all my needs were met! The rooms are very clean and spacious and come with a Flat Screen TV, refrigerator, Microwave, and even a Kitchen sink.</t>
   </si>
   <si>
+    <t>frmagallanes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r129732897-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -613,6 +685,9 @@
     <t xml:space="preserve">By far is one of the cleanest and most well maintained hotels I have ever stayed at. Staff is very helpful and accomidating. I highly recommend staying here. I know I will. </t>
   </si>
   <si>
+    <t>Cynthia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r127811170-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -631,6 +706,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Kevin K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r119630164-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -644,6 +722,9 @@
   </si>
   <si>
     <t xml:space="preserve">It was clean, staff were nice and everything worked fine. Breakfast was a tiny corner with a few items. The eating area was very small so if you have a big family, breakfast there will be a challenge. </t>
+  </si>
+  <si>
+    <t>TuRbO218</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r98456614-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -1172,43 +1253,47 @@
       <c r="A2" t="n">
         <v>3946</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>142888</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1222,50 +1307,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3946</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1279,50 +1368,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3946</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>142889</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1340,50 +1433,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3946</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>142890</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1401,50 +1498,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3946</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>142891</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1464,50 +1565,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3946</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>142892</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1527,50 +1632,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3946</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>142893</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1584,50 +1693,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3946</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>28298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1647,50 +1760,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3946</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>142894</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1706,56 +1823,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3946</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>142895</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1775,50 +1896,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3946</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>79612</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1838,50 +1963,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3946</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>142896</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1895,50 +2024,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3946</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>457</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1962,50 +2095,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3946</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>142897</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2029,50 +2166,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3946</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>142898</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2096,50 +2237,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3946</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>32629</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2163,50 +2308,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3946</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>142899</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2230,50 +2379,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3946</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>142900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2297,50 +2450,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3946</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>11016</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2364,50 +2521,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3946</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>142901</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2431,50 +2592,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3946</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>29583</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2498,50 +2663,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3946</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>40235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2565,50 +2734,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3946</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>142902</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2632,41 +2805,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3946</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>142903</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -2695,50 +2872,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3946</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>31269</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2762,41 +2943,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3946</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>14940</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -2825,41 +3010,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3946</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>142904</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
@@ -2886,13 +3075,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
@@ -1254,7 +1254,7 @@
         <v>3946</v>
       </c>
       <c r="B2" t="n">
-        <v>142888</v>
+        <v>174099</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1376,7 +1376,7 @@
         <v>3946</v>
       </c>
       <c r="B4" t="n">
-        <v>142889</v>
+        <v>174100</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1441,7 +1441,7 @@
         <v>3946</v>
       </c>
       <c r="B5" t="n">
-        <v>142890</v>
+        <v>174101</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1506,7 +1506,7 @@
         <v>3946</v>
       </c>
       <c r="B6" t="n">
-        <v>142891</v>
+        <v>174102</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -1573,7 +1573,7 @@
         <v>3946</v>
       </c>
       <c r="B7" t="n">
-        <v>142892</v>
+        <v>174103</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -1640,7 +1640,7 @@
         <v>3946</v>
       </c>
       <c r="B8" t="n">
-        <v>142893</v>
+        <v>174104</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -1768,7 +1768,7 @@
         <v>3946</v>
       </c>
       <c r="B10" t="n">
-        <v>142894</v>
+        <v>174105</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1837,7 +1837,7 @@
         <v>3946</v>
       </c>
       <c r="B11" t="n">
-        <v>142895</v>
+        <v>174106</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
@@ -1971,7 +1971,7 @@
         <v>3946</v>
       </c>
       <c r="B13" t="n">
-        <v>142896</v>
+        <v>174107</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
@@ -2103,7 +2103,7 @@
         <v>3946</v>
       </c>
       <c r="B15" t="n">
-        <v>142897</v>
+        <v>174108</v>
       </c>
       <c r="C15" t="s">
         <v>145</v>
@@ -2174,7 +2174,7 @@
         <v>3946</v>
       </c>
       <c r="B16" t="n">
-        <v>142898</v>
+        <v>174109</v>
       </c>
       <c r="C16" t="s">
         <v>152</v>
@@ -2316,7 +2316,7 @@
         <v>3946</v>
       </c>
       <c r="B18" t="n">
-        <v>142899</v>
+        <v>174110</v>
       </c>
       <c r="C18" t="s">
         <v>168</v>
@@ -2387,7 +2387,7 @@
         <v>3946</v>
       </c>
       <c r="B19" t="n">
-        <v>142900</v>
+        <v>174111</v>
       </c>
       <c r="C19" t="s">
         <v>175</v>
@@ -2529,7 +2529,7 @@
         <v>3946</v>
       </c>
       <c r="B21" t="n">
-        <v>142901</v>
+        <v>174112</v>
       </c>
       <c r="C21" t="s">
         <v>188</v>
@@ -2742,7 +2742,7 @@
         <v>3946</v>
       </c>
       <c r="B24" t="n">
-        <v>142902</v>
+        <v>174113</v>
       </c>
       <c r="C24" t="s">
         <v>209</v>
@@ -2813,7 +2813,7 @@
         <v>3946</v>
       </c>
       <c r="B25" t="n">
-        <v>142903</v>
+        <v>174114</v>
       </c>
       <c r="C25" t="s">
         <v>215</v>
@@ -3018,7 +3018,7 @@
         <v>3946</v>
       </c>
       <c r="B28" t="n">
-        <v>142904</v>
+        <v>174115</v>
       </c>
       <c r="C28" t="s">
         <v>234</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_233.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>donwapel</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r496821594-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>32177</t>
+  </si>
+  <si>
+    <t>142257</t>
+  </si>
+  <si>
+    <t>496821594</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Very Accommodating</t>
+  </si>
+  <si>
+    <t>I needed a last minute place to stay near Stub Hub and had requested a bottom floor room and the lady was very nice to accommodate me.  Room was very nice and they are doing renovations on the Upper floors.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r493518835-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>493518835</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Worked nearby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**recently renovated** pictures are old. I stay here off and on for work for the last year. I worked at nearby refinary. Sometimes stayed 9-10 days straight. This great place to stay for folks doing work at Tesoro, TRC or even down in long beach. Plenty of room to park large trucks. Lots of security cameras etc. Room was always kept clean. Hosts have always been friendly and accommodating. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r482947533-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
-    <t>32177</t>
-  </si>
-  <si>
-    <t>142257</t>
-  </si>
-  <si>
     <t>482947533</t>
   </si>
   <si>
@@ -178,12 +211,6 @@
   </si>
   <si>
     <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r473820351-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -214,9 +241,6 @@
 Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add...We so don't like to write negative reviews AT ALL.  Especially when it comes to Mom/Pop businesses who are just trying to make their businesses work.  But Just thought it important to note a few things about this hotel for traveling families.  First, the area is sketchy; felt unsafe to have our children there - or even just us for that matter. Secondly, even  though the East Indian, elderly owners seem like nice people (the husband especially - smiled often); they seem of persasion that they are 'allowing' you as the customer to stay there but they are not there to serve you.  When we checked in, the owners said they didn't have the type of room we booked so they had to give us a more expensive upgraded room that had a jacuzzi tub - but said to NOT use the jacuzzi.  We've NEVER had a hotel/motel give you an upgrade but then tell you not to use the room amenities.  To us that was penny-pinching, poor customer service. Also, later on on, aroun 10 pm, we arrived back at the hotel and needed additional bedding items.  The owner (wife) came to the window (barefoot) and said housekeeping was no longer there so they couldn't help us.  And said, (as she  they handed me an blanket from their own room), that she would charge me extra for that.  Seems good customer service would NEVER say that.  (I must add that we ended up having more people in our room than we stated when we booked the room.  But was very upfront about that before we officially checked in and signed our receipt, and she agreed to it.  Any 'threats' of extra charges should have been stated upfront at check-in.Lastly, the windows have bars on them and look out at a rundown alley.  Funny thing is, we paid more for this hotel than others that we stayed in on our vacation in Cali.  It was truly the hotel (and the area in CA) we liked the least. It further solidified our lack of trust in  Choice Hotels.  That said, we truly wish the owners well and hope this review will help them reconsider how to handle their customers so they can thrive more :)More</t>
   </si>
   <si>
-    <t>Alicia_Bellino</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r428236113-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -235,7 +259,43 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>pbodhani</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r414046260-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>414046260</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>more than adequate for the price</t>
+  </si>
+  <si>
+    <t>friendly staff, great for the price.  our room was quite large. walking distance to a variety of restaurants.  the continental breakfast was "meager" but they did have fresh fruit which is a plus and the coffee was decent :)</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r399327158-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>399327158</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting.  The room smelled of smoke, even though it was a nonsmoking room, the wallpaper was peeling off the walls, the lamps were half hanging on the walls, the phone did not work and the bathtub is out in the open.  Also, the owner tried to tell me that I had only reserved it for 2 people when it clearly said 4 people on my confirmation.  They wanted to charge me extra but I pitched a fit.  I cannot believe that this hotel was EVER recommended by TripAdvisor.  The positive reviews must be from relatives.  We refused to unpack our suitcases and demanded a full refund.   The owners didn't have much to say and quickly refunded my money.  Then I was left with no place to stay at 6pm.  Thank goodness we had someone in the car who was familiar with the area.  By far the WORST place I have ever reserved.  I feel very duped by the reviews.  I use TripAdvisor all of the time and this has never happened to me before.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting.  The room smelled of smoke, even though it was a nonsmoking room, the wallpaper was peeling off the walls, the lamps were half hanging on the walls, the phone did not work and the bathtub is out in the open.  Also, the owner tried to tell me that I had only reserved it for 2 people when it clearly said 4 people on my confirmation.  They wanted to charge me extra but I pitched a fit.  I cannot believe that this hotel was EVER recommended by TripAdvisor.  The positive reviews must be from relatives.  We refused to unpack our suitcases and demanded a full refund.   The owners didn't have much to say and quickly refunded my money.  Then I was left with no place to stay at 6pm.  Thank goodness we had someone in the car who was familiar with the area.  By far the WORST place I have ever reserved.  I feel very duped by the reviews.  I use TripAdvisor all of the time and this has never happened to me before.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r370032848-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -259,9 +319,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>BevW631</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r333427553-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -280,9 +337,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>ylnsie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r310600956-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -301,7 +355,49 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Lolabrenda</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r292772301-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>292772301</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Lacking understanding!</t>
+  </si>
+  <si>
+    <t>I booked a wheelchair accessible room with 1 queen and 1 double. Beds were same size. Not enough room to use the wheelchair in the room. Bathroom was large. It had a tub/shower that was not wheelchair accessible. Bread for toast in the morning tasted stale. Danish tasted stale. Orange juice, coffee, and tea were the only beverages available. I was charged more than I was quoted for the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Mahisha P, Manager at Econo Lodge Near Stub Hub Center, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>I booked a wheelchair accessible room with 1 queen and 1 double. Beds were same size. Not enough room to use the wheelchair in the room. Bathroom was large. It had a tub/shower that was not wheelchair accessible. Bread for toast in the morning tasted stale. Danish tasted stale. Orange juice, coffee, and tea were the only beverages available. I was charged more than I was quoted for the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r281021401-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>281021401</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>EconoLodge Carson, CA</t>
+  </si>
+  <si>
+    <t>Friendly staff, very basic, clean, very reasonable, found continental breakfast ready around 5 AM (great if you need to get up and go), very good wi-fi and convieniently located to local restaurants and shopping.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r276568127-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -316,16 +412,13 @@
     <t>I live in San Bernardino, Ca.I was invited to an Event in LA.I remember my first stay at EconoLodge Carson,Ca. Yr.2006</t>
   </si>
   <si>
-    <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and Family❤MoreShow less</t>
+    <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and FamilyMoreShow less</t>
   </si>
   <si>
     <t>May 2015</t>
   </si>
   <si>
-    <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and Family❤More</t>
-  </si>
-  <si>
-    <t>Ron T</t>
+    <t>Year 2006 my family and I, Stayed at Econo Lodge in Carson.for 3 weeks Manju and family were a blessing. Very very clean, Very very nice when we had a need, it was always met! Now year 2015 we had an event in Los Angeles we chose the Econo Lodge in Carson"AGAIN"it has been remodeled Very Beautiful and Clean.Service is EXCELLENT!We live in San Bernardino.Our families Top choice, ECONOLODGE In Carson,CityCa.Atmosphere peaceful,Quiet..Lovely Garden, shows allot of attention...Beautiful.The breakfast lobby..Excellent coffee, "Good Morning Aroma"Thank you sincerely! You know the saying..."There's no place like home" Are family believes in ECONOLODGE IN CARSON! Thank you "Again" Until next time...Manju and family Keep up the Excellent Business! May God Bless you Beyond, for being a Blessing too Others. Thank you, LolaBren and FamilyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r275840500-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -346,9 +439,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>earlisha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r272758997-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -373,7 +463,56 @@
     <t>When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely...When the attendant gave me the key to the room, I looked briefly and I told the attendant the this isn't acceptable. She told me well there is no other rooms.  I explain to her my daughter is graduating and I'm from out of town and three people would not fit. She stated I don't know what to tell you. "You prepaid and you can't get your money back". Everything is all booked up.  This was the worst hotel I have ever stayed in. Not clean!!!!! Parts of the ceiling and walls dirty and piling paint, wall paper and holes. Old food was still in the fig from the talents before. I turned on the shower and black two pieces of tiles fail into the tub. floors very dirty. I went to tell the attendant, for the second time, now the doors are locked and no one is the office. I rang the bell and no ever come to assist me at the window. I needed it for one night and I had one adult and two children. I couldn't have my children stay in the room because of the conditions were so bad. I had to my children stay with a family members Los Angeles because of the traffic and other things going on. The condition and the noise and the smell was so over whelming I did not sleep. The photo they show on this page is definitely false.  HORRIBLE Experience!!!!More</t>
   </si>
   <si>
-    <t>Emanoil G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r266130799-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>266130799</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Very average</t>
+  </si>
+  <si>
+    <t>Nothing particular to recommend it, nothing really bad. Neighborhood not inviting but is close to interstate. Room decor dated. Bed okay. Not inexpensive but area is pricy. Would look for another property before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manjumakan, General Manager at Econo Lodge Near Stub Hub Center, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Nothing particular to recommend it, nothing really bad. Neighborhood not inviting but is close to interstate. Room decor dated. Bed okay. Not inexpensive but area is pricy. Would look for another property before staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r262991148-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>262991148</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Looks Can Be Deceiving</t>
+  </si>
+  <si>
+    <t>On a recent business trip to Los Angeles, I decided to use a frequent discount website to book a hotel in the LA area.  Most of the 3 star properties were very expensive so I opted to look at 2 star locations which I normally do not do.  I chose this hotel and being an elite member of the discount site, I had a choice to decline this hotel and chose another. I decided to visit the property and make my decision then.
+When I pulled up into the hotel, my first thoughts were oh no, I won't stay here.  I went into the lobby and met the property managers, Raju and Manju and instantly my disposition changed! Raju and Manju make you feel like you are part of their family. THAT TELLS YOU FROM THE START WHAT THAT HOTEL WILL BE LIKE. Once the property managers make you feel like you are home, then you know the rooms will be clean and welcoming.
+The hotel is not your 5 star property but Raju and Manju make you feel like you are staying at a 5 star property.  I have traveled through hundreds of hotels in the past few years and although this isn't a 5 star property, I was treated like I was in a 5 star property. The hotel is a 2 star property and please realize this when you visit--you are paying for a 2 star property....On a recent business trip to Los Angeles, I decided to use a frequent discount website to book a hotel in the LA area.  Most of the 3 star properties were very expensive so I opted to look at 2 star locations which I normally do not do.  I chose this hotel and being an elite member of the discount site, I had a choice to decline this hotel and chose another. I decided to visit the property and make my decision then.When I pulled up into the hotel, my first thoughts were oh no, I won't stay here.  I went into the lobby and met the property managers, Raju and Manju and instantly my disposition changed! Raju and Manju make you feel like you are part of their family. THAT TELLS YOU FROM THE START WHAT THAT HOTEL WILL BE LIKE. Once the property managers make you feel like you are home, then you know the rooms will be clean and welcoming.The hotel is not your 5 star property but Raju and Manju make you feel like you are staying at a 5 star property.  I have traveled through hundreds of hotels in the past few years and although this isn't a 5 star property, I was treated like I was in a 5 star property. The hotel is a 2 star property and please realize this when you visit--you are paying for a 2 star property. The rooms are what you expect from a 2 star property, however this hotel has very clean and well maintained rooms.  The rooms have microwave ovens and refrigerators. The hotel has a lot of blue collar clientele but it is quiet and you will enjoy a good night sleep in their comfortable beds.I originally planned to stay 2 nights and move to another hotel, I chose to stay 4 more nights!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manjumakan, Manager at Econo Lodge Near Stub Hub Center, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>On a recent business trip to Los Angeles, I decided to use a frequent discount website to book a hotel in the LA area.  Most of the 3 star properties were very expensive so I opted to look at 2 star locations which I normally do not do.  I chose this hotel and being an elite member of the discount site, I had a choice to decline this hotel and chose another. I decided to visit the property and make my decision then.
+When I pulled up into the hotel, my first thoughts were oh no, I won't stay here.  I went into the lobby and met the property managers, Raju and Manju and instantly my disposition changed! Raju and Manju make you feel like you are part of their family. THAT TELLS YOU FROM THE START WHAT THAT HOTEL WILL BE LIKE. Once the property managers make you feel like you are home, then you know the rooms will be clean and welcoming.
+The hotel is not your 5 star property but Raju and Manju make you feel like you are staying at a 5 star property.  I have traveled through hundreds of hotels in the past few years and although this isn't a 5 star property, I was treated like I was in a 5 star property. The hotel is a 2 star property and please realize this when you visit--you are paying for a 2 star property....On a recent business trip to Los Angeles, I decided to use a frequent discount website to book a hotel in the LA area.  Most of the 3 star properties were very expensive so I opted to look at 2 star locations which I normally do not do.  I chose this hotel and being an elite member of the discount site, I had a choice to decline this hotel and chose another. I decided to visit the property and make my decision then.When I pulled up into the hotel, my first thoughts were oh no, I won't stay here.  I went into the lobby and met the property managers, Raju and Manju and instantly my disposition changed! Raju and Manju make you feel like you are part of their family. THAT TELLS YOU FROM THE START WHAT THAT HOTEL WILL BE LIKE. Once the property managers make you feel like you are home, then you know the rooms will be clean and welcoming.The hotel is not your 5 star property but Raju and Manju make you feel like you are staying at a 5 star property.  I have traveled through hundreds of hotels in the past few years and although this isn't a 5 star property, I was treated like I was in a 5 star property. The hotel is a 2 star property and please realize this when you visit--you are paying for a 2 star property. The rooms are what you expect from a 2 star property, however this hotel has very clean and well maintained rooms.  The rooms have microwave ovens and refrigerators. The hotel has a lot of blue collar clientele but it is quiet and you will enjoy a good night sleep in their comfortable beds.I originally planned to stay 2 nights and move to another hotel, I chose to stay 4 more nights!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r252102755-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -394,9 +533,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Anand P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r249315763-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -415,9 +551,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>xOjessicaXo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r232478079-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -436,7 +569,40 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Steve M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r206004434-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>206004434</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Awesomeness!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great stay! Our room was clean, big, and nice. The family who own/run it are sooo nice and helpful. It sits in a nice neighborhood and close to lots of things to do. Highly recommend this and would absolutely stay here again!! </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r200670277-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>200670277</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I stayed on March 4, 2014. Clean, comfortable, good shower head, strong internet connection, courteous front desk service. A refrigerator and a microwave. What more could you want? It is what it is. It's an economy motel so don't expect what you'd get if you were paying $200+ but do expect a great value. I'll be staying again when I'm back in the area.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r189412089-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -457,9 +623,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>roland s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r183646139-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -469,18 +632,12 @@
     <t>11/05/2013</t>
   </si>
   <si>
-    <t>Great value</t>
-  </si>
-  <si>
     <t>I've stayed here many times before. Each time the room has been very clean and furnished with a flat screen TV, fridge and microwave. The staff is very friendly and helpful. A very good price for what you get.</t>
   </si>
   <si>
     <t>November 2013</t>
   </si>
   <si>
-    <t>Ester B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r180719616-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -502,7 +659,37 @@
     <t>I drive and evaluate Mercedes Benz, was in Carson, CA coming from Corpus Christi, Texas, had been on the road for 2 days.  I am so glad I found EconoLodge.  Excellent facility ! !  Econolodge was just blocks  away from my destination,  I was very impressed, thought I was at a Double Tree Hotel.  Front Desk staff are VERY KIND and HELPFUL people.  Room was a very big room and very clean.  Loved the  big flat screen T.V.(so many channels to choose from)  Was glad it had a fridge, microwave  iron &amp; board.  The price was excellent for all the service.  Very well lighted  &amp; very clean parking lot.  THIS IS THE PERFECT PLACE TO STOP AND SPEND THE NIGHT OR NIGHTS.  Next time I make a transfer of vehicles with my company, for sure, this will be my destination to rest.  Thank you very much to the great, helpful &amp; friendly front desk staff.More</t>
   </si>
   <si>
-    <t>J C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r168929673-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>168929673</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Great bang for the buck</t>
+  </si>
+  <si>
+    <t>Clean room, very friendly and helpful owner, a great location relative to the Home Depot Center. Couldn't ask for anything more from a working trip motel. Frankly, I was expecting far faaaaaaar less from a city of Carson motel this close to the 405. Thank you staff/owners for exceeding my expectations!Oh, the only downside: traffic on Carson St is a bit loud (especially when it's patrol cars rolling with sirens blaring).</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r168296770-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>168296770</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Great Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean and safe. The room was a little smelly but aside from that everything was fine. The staff were kind and helpful. If you need a clean, affordable, safe place, this is it. However, it is not located near a beach or anything touristy, so if that is a problem for you take it in to consideration. Overall the stay here has been fine. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r163023804-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -526,9 +713,6 @@
     <t>My spouse and our son visited the room while the other family members stayed in the car, I sent our oldest son because he is very observant and will tell the TRUTH about it.  When they returned to the car he said "the room is very big and nice".  I asked him was it clean and he said yes.  We checked in and the room was very clean and was very spacious.  Housekeeping crew were always up very early in the morning cleaning the lot, rooms etc.  The management was very kind to our family.  When we needed anything all we had to do was ask them.  Every thing was super duper clean.  We loved our stay and did not want to leave.  You will love this hotel!!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
-    <t>Samluvssun</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r152886173-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -547,9 +731,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Fields934</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r145685300-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -568,7 +749,43 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>David E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r145478369-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>145478369</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>FAMILY WEDDING IN CARSON</t>
+  </si>
+  <si>
+    <t>We were there in May 4th and 5th 2012 for my Nephew's wedding and I can't say enough about the owner's and how wonderful they were, the 3 rooms that we had were wonderful.... Just being in California was wonderful and NO RAIN AS we flew in from Seattle.... I will and have recommended this hotel to others and when ever I'm back in the Long Beach, Carson area this will be my choice place. Rooms were clean however, the area isn't all that but there is a Samoan restaurant next door and in the morning you can smell that bread baking it smelled wonderful and we all had breakfast there AWESOME!!!!!!All in All I have to say keep up the good work Econo Lodge Management and Staff are AWESOME!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We were there in May 4th and 5th 2012 for my Nephew's wedding and I can't say enough about the owner's and how wonderful they were, the 3 rooms that we had were wonderful.... Just being in California was wonderful and NO RAIN AS we flew in from Seattle.... I will and have recommended this hotel to others and when ever I'm back in the Long Beach, Carson area this will be my choice place. Rooms were clean however, the area isn't all that but there is a Samoan restaurant next door and in the morning you can smell that bread baking it smelled wonderful and we all had breakfast there AWESOME!!!!!!All in All I have to say keep up the good work Econo Lodge Management and Staff are AWESOME!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r142657835-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>142657835</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>Our L.A., CA, stay</t>
+  </si>
+  <si>
+    <t>we had a group of five family members &amp; had three rooms - for four nights - in Sept., 2012.  this motel &amp; its owners were VERY accomodating &amp; courteous !! - during our stay - from very early morning check-in thru check-out.  a very good/convenient location that satisfied our needs while in the L.A. area.  rooms were clean &amp; comfortable.  the price was "right" !!  i would reccomend this motel to other family &amp; friends !!  thanks !!!!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r142142509-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -586,9 +803,6 @@
     <t>Friendly, courteous service as well as great rates. Would definitely reccomend this hotel to others. Very clean rooms. Close to everything you need while staying in the area. Nothing bad to say about my stay here.</t>
   </si>
   <si>
-    <t>thoranderson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r141348979-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -604,12 +818,6 @@
     <t>great hotel i love the service convient and near the 405 fwy also a good value. the people were very nice as well. the free breakfest is also convient just grad your breakfest and go          Yay!ggggggggggggggggggggggggggrrrrrrrrrrrrrrrrrrrrrreeeeeeeeeeeeeeeeeeeeeaaaaaaaaaaaaaaaaaaaattttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttttt!</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
-    <t>Sal R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r141150882-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -628,7 +836,40 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Paul J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r138280737-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>138280737</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>We stayed at this lodge for 7 days. Its value for money. Its best hotel with reasonable charges in that area. Hotel provides level of comfort that you will feel like home. Hotel staff is very good, supportive and helpful. Rooms are clean. It also provides wifi internet.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131795095-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>131795095</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Esteban Ruiz</t>
+  </si>
+  <si>
+    <t>I stay here for 3 months 4 days a week and I very comfort  of this hotel,the service is good and is clean all the rooms,the staff is very helpful and accomidating.i recommend staying here.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131687565-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -646,12 +887,6 @@
     <t>I was very impressed with the cleanliness and comfort of this motel, and the service was excellentI rate this place a++++</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
-    <t>NFLjunkeez</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r131518905-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -667,9 +902,6 @@
     <t>Being a truck driver I see my share of Hotels. I just returned from staying here a couple days ago and I must say... I am NOT disappointed! I had no desire to seek a different Hotel due to my initial pleasant experience. The staff is great and provided outstanding customer service ensuring all my needs were met! The rooms are very clean and spacious and come with a Flat Screen TV, refrigerator, Microwave, and even a Kitchen sink.</t>
   </si>
   <si>
-    <t>frmagallanes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r129732897-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -685,7 +917,37 @@
     <t xml:space="preserve">By far is one of the cleanest and most well maintained hotels I have ever stayed at. Staff is very helpful and accomidating. I highly recommend staying here. I know I will. </t>
   </si>
   <si>
-    <t>Cynthia C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r129430347-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>129430347</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Peaceful and Nice  place to stay</t>
+  </si>
+  <si>
+    <t>The place/location is very good. We stayed there for 10 days and liked the place. Clean rooms, towels, free break fast, Free WI-Fi and TV as well. Staff is very cooperative. Daily cleaning and replacing of towels. Near to 405.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r129367210-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>129367210</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>I've stayed in plenty of hotels,and this one is great!  A great price and excellent service. Very friendly,clean and quiet.  Had a wonderful time.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r127811170-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
@@ -703,12 +965,6 @@
     <t>This motel is centrally located half way between Long Beach and Redondo Beach, just south of LAX, and it was comfortable and very clean. Nice sheets, towels, small refrigerator, microwave, free wifi, &amp; flat screen. I would stay here again.</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
-    <t>Kevin K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r119630164-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -724,9 +980,6 @@
     <t xml:space="preserve">It was clean, staff were nice and everything worked fine. Breakfast was a tiny corner with a few items. The eating area was very small so if you have a big family, breakfast there will be a challenge. </t>
   </si>
   <si>
-    <t>TuRbO218</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r98456614-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
   </si>
   <si>
@@ -749,6 +1002,33 @@
   </si>
   <si>
     <t>Okay now the room was way more nice than I expected..lol..honestly think the rooms are better than the Doubletree and I use to stay there all the time..Econo Lodge is cheaper and you almost get more than your expecting..!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142257-r73984501-Econo_Lodge_Near_Stub_Hub_Center-Carson_California.html</t>
+  </si>
+  <si>
+    <t>73984501</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised- really!</t>
+  </si>
+  <si>
+    <t>My friend booked this hotel for me-so wasn't sure what to expect.  He said room is nice and clean.  So i thought ok, The rooms were nice and clean, roomy and had everything i needed. The hotel is by the freeway and close to the Long Beach aquarium, knotts and Disneyland aren't far away either.   Continental breakfast was nice.  Price was reasonable.  Saw lots of families staying here.  My favorite part was the cleanliness and nice and helpful hotel staff.  They were happy to talk to me and answer all my questions.  They even asked if there was anything else i needed.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>econo-carson, Frond Desk Attendent at Econo Lodge Near Stub Hub Center, responded to this reviewResponded August 25, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2010</t>
+  </si>
+  <si>
+    <t>My friend booked this hotel for me-so wasn't sure what to expect.  He said room is nice and clean.  So i thought ok, The rooms were nice and clean, roomy and had everything i needed. The hotel is by the freeway and close to the Long Beach aquarium, knotts and Disneyland aren't far away either.   Continental breakfast was nice.  Price was reasonable.  Saw lots of families staying here.  My favorite part was the cleanliness and nice and helpful hotel staff.  They were happy to talk to me and answer all my questions.  They even asked if there was anything else i needed.  Would definitely stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -1253,108 +1533,104 @@
       <c r="A2" t="n">
         <v>3946</v>
       </c>
-      <c r="B2" t="n">
-        <v>174099</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3946</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1368,196 +1644,174 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3946</v>
       </c>
-      <c r="B4" t="n">
-        <v>174100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3946</v>
       </c>
-      <c r="B5" t="n">
-        <v>174101</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3946</v>
       </c>
-      <c r="B6" t="n">
-        <v>174102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1565,66 +1819,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3946</v>
       </c>
-      <c r="B7" t="n">
-        <v>174103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1632,123 +1882,119 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3946</v>
       </c>
-      <c r="B8" t="n">
-        <v>174104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3946</v>
       </c>
-      <c r="B9" t="n">
-        <v>28298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1760,61 +2006,59 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3946</v>
       </c>
-      <c r="B10" t="n">
-        <v>174105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>1</v>
@@ -1822,73 +2066,65 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" t="s">
-        <v>115</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3946</v>
       </c>
-      <c r="B11" t="n">
-        <v>174106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1896,253 +2132,237 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3946</v>
       </c>
-      <c r="B12" t="n">
-        <v>79612</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3946</v>
       </c>
-      <c r="B13" t="n">
-        <v>174107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3946</v>
       </c>
-      <c r="B14" t="n">
-        <v>457</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3946</v>
       </c>
-      <c r="B15" t="n">
-        <v>174108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2150,12 +2370,8 @@
       <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>4</v>
@@ -2166,209 +2382,185 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3946</v>
       </c>
-      <c r="B16" t="n">
-        <v>174109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" t="s">
+        <v>145</v>
+      </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3946</v>
       </c>
-      <c r="B17" t="n">
-        <v>32629</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3946</v>
       </c>
-      <c r="B18" t="n">
-        <v>174110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2376,64 +2568,60 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3946</v>
       </c>
-      <c r="B19" t="n">
-        <v>174111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>5</v>
       </c>
@@ -2450,64 +2638,56 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3946</v>
       </c>
-      <c r="B20" t="n">
-        <v>11016</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
       </c>
@@ -2521,205 +2701,173 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3946</v>
       </c>
-      <c r="B21" t="n">
-        <v>174112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3946</v>
       </c>
-      <c r="B22" t="n">
-        <v>29583</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>201</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3946</v>
       </c>
-      <c r="B23" t="n">
-        <v>40235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -2734,63 +2882,59 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3946</v>
       </c>
-      <c r="B24" t="n">
-        <v>174113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>209</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -2805,66 +2949,66 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3946</v>
       </c>
-      <c r="B25" t="n">
-        <v>174114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2872,70 +3016,66 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3946</v>
       </c>
-      <c r="B26" t="n">
-        <v>31269</v>
-      </c>
-      <c r="C26" t="s">
-        <v>221</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2943,66 +3083,66 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3946</v>
       </c>
-      <c r="B27" t="n">
-        <v>14940</v>
-      </c>
-      <c r="C27" t="s">
-        <v>228</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3010,45 +3150,41 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3946</v>
       </c>
-      <c r="B28" t="n">
-        <v>174115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
@@ -3059,10 +3195,10 @@
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3074,14 +3210,1279 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>240</v>
       </c>
-      <c r="X28" t="s">
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
         <v>241</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" t="s">
+        <v>269</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s">
+        <v>307</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
+        <v>317</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>323</v>
+      </c>
+      <c r="X46" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3946</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s">
+        <v>330</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>332</v>
+      </c>
+      <c r="X47" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
